--- a/04_output_data/physical_copy.xlsx
+++ b/04_output_data/physical_copy.xlsx
@@ -13,10 +13,80 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Seal of State</t>
+  </si>
+  <si>
+    <t>Seal of State Issuer</t>
+  </si>
+  <si>
+    <t>Second Seal</t>
+  </si>
+  <si>
+    <t>Second Seal Issuer</t>
+  </si>
+  <si>
+    <t>Bueraucratic Stamp</t>
+  </si>
+  <si>
+    <t>Place of Studio's Photographer's Name</t>
+  </si>
+  <si>
+    <t>Photographer</t>
+  </si>
+  <si>
+    <t>Location of Photographer</t>
+  </si>
+  <si>
+    <t>Date of Document</t>
+  </si>
+  <si>
+    <t>Date on Photograph</t>
+  </si>
+  <si>
+    <t>Handwritten on front</t>
+  </si>
+  <si>
+    <t>Numbered</t>
+  </si>
+  <si>
+    <t>Perforated</t>
+  </si>
+  <si>
+    <t>Printed information on Front</t>
+  </si>
+  <si>
+    <t>Writing on Front</t>
+  </si>
+  <si>
+    <t>Date of Photograph</t>
+  </si>
+  <si>
+    <t>Color of Ink</t>
+  </si>
+  <si>
+    <t>Other notes</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -32,7 +102,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,12 +110,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,12 +428,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B1:T1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:20">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>